--- a/medicine/Handicap/Die_Goldfische/Die_Goldfische.xlsx
+++ b/medicine/Handicap/Die_Goldfische/Die_Goldfische.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Die Goldfische (littéralement « le poisson rouge », appelé en allemand « le poisson d'or ») est un film allemand réalisé par Alireza Golafshan, sorti en 2019.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier, un banquier spécialiste de l'évasion fiscale, se retrouve paraplégique après un accident de voiture. À l'hôpital, il monte un plan avec d'autres patients handicapés pour récupérer de l'argent sale en Suisse.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Die Goldfische
 Réalisation : Alireza Golafshan
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tom Schilling : Oliver Overrath
 Jella Haase : Laura Ferber
@@ -626,9 +644,11 @@
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a enregistré 659 295 d'entrées au box-office allemand[1]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a enregistré 659 295 d'entrées au box-office allemand. 
 </t>
         </is>
       </c>
